--- a/spreadsheets/SantaClara20240124.xlsx
+++ b/spreadsheets/SantaClara20240124.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrandolph\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3CD1D-7FDB-4B8C-B316-EA1281D2646E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D164CEF-9231-4B1D-8EB5-9017B2A99F54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="5685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="568">
   <si>
     <t>Title</t>
   </si>
@@ -114,39 +114,6 @@
     <t>1988</t>
   </si>
   <si>
-    <t>PE 1.2: T 71/3</t>
-  </si>
-  <si>
-    <t>PE 1.8: AG 8/</t>
-  </si>
-  <si>
-    <t>PE 1.2:F21/2</t>
-  </si>
-  <si>
-    <t>PE 1.2:P31/2</t>
-  </si>
-  <si>
-    <t>PE 1.2:N95</t>
-  </si>
-  <si>
-    <t>PE 1.8:Au2</t>
-  </si>
-  <si>
-    <t>PE 1.8:B39</t>
-  </si>
-  <si>
-    <t>PE 1.8:B56</t>
-  </si>
-  <si>
-    <t>PE 1.8:C37</t>
-  </si>
-  <si>
-    <t>PE 1.8:C73</t>
-  </si>
-  <si>
-    <t>PE 1.8:C73/2</t>
-  </si>
-  <si>
     <t>Family Planning: Its Impact on the Health of Women and Children Center for Population and Family Health</t>
   </si>
   <si>
@@ -186,21 +153,6 @@
     <t>G-10</t>
   </si>
   <si>
-    <t>PE 1.8:D46</t>
-  </si>
-  <si>
-    <t>PE 1.8:F69</t>
-  </si>
-  <si>
-    <t>PE 1.8:F76</t>
-  </si>
-  <si>
-    <t>PE 1.8:M33</t>
-  </si>
-  <si>
-    <t>PE 1.8:P94</t>
-  </si>
-  <si>
     <t>A Training Manual in Conducting a Workshop in the Design, Construction, Operation, Maintenance and Repair of Hydrams</t>
   </si>
   <si>
@@ -231,18 +183,6 @@
     <t xml:space="preserve">Peace Corps Times A Quarterly Publication for Peace Corps Volunteers Serving Worldwide </t>
   </si>
   <si>
-    <t>PE 1.8:V88</t>
-  </si>
-  <si>
-    <t>PE 1.2:J57/988</t>
-  </si>
-  <si>
-    <t>PE 1.2:C76/2</t>
-  </si>
-  <si>
-    <t>PE 1.2:T83</t>
-  </si>
-  <si>
     <t>Peace Corps Partnership Program Volunteer Handbook</t>
   </si>
   <si>
@@ -312,9 +252,6 @@
     <t xml:space="preserve"> (scattered holdings 1951-1969)</t>
   </si>
   <si>
-    <t>P 1.52: M 58</t>
-  </si>
-  <si>
     <t>P 1.1: 970</t>
   </si>
   <si>
@@ -333,24 +270,9 @@
     <t>P 1.48: 18</t>
   </si>
   <si>
-    <t>P 1.52: C 76</t>
-  </si>
-  <si>
-    <t>P 1.52: OP 2</t>
-  </si>
-  <si>
     <t>P 1.1: 951</t>
   </si>
   <si>
-    <t>P 410.943</t>
-  </si>
-  <si>
-    <t>P 4.10: TR.2</t>
-  </si>
-  <si>
-    <t>P 1.52: EX 7</t>
-  </si>
-  <si>
     <t>P 4.10: 970</t>
   </si>
   <si>
@@ -486,9 +408,6 @@
     <t>NA 2.2: R 11/5</t>
   </si>
   <si>
-    <t>NA 1.1: OR</t>
-  </si>
-  <si>
     <t>NA 1.2: H 34</t>
   </si>
   <si>
@@ -876,15 +795,6 @@
     <t>VA 1.20: 991</t>
   </si>
   <si>
-    <t>VA 1.20/2: H 41/V. 15-16</t>
-  </si>
-  <si>
-    <t>VA 1.20/2: H 41/v. 17-18</t>
-  </si>
-  <si>
-    <t>VA 1.20/2: H 44/V. 19-20</t>
-  </si>
-  <si>
     <t>VA 1.22: 2-151/990</t>
   </si>
   <si>
@@ -924,9 +834,6 @@
     <t>VA 1.22: 04-81-12</t>
   </si>
   <si>
-    <t>VA 1.22: 5-(175-195)</t>
-  </si>
-  <si>
     <t>VA 1.22: 10-16</t>
   </si>
   <si>
@@ -1074,9 +981,6 @@
     <t>VA 1.22: 11-65</t>
   </si>
   <si>
-    <t>VA 1.22: 11-(66-76)</t>
-  </si>
-  <si>
     <t>VA 1.22: 11-77</t>
   </si>
   <si>
@@ -1293,9 +1197,6 @@
     <t>Veterans Benefits Under Current Educational Programs April 1981</t>
   </si>
   <si>
-    <t>Personnel Information Bulletin (Scattered Holdings April 1964 - September-October 1967, 18 books)</t>
-  </si>
-  <si>
     <t>Department of Medicine and Surgery The Physical Environment of the Health Care Facility: A Literature Review and Annotated Bibliography</t>
   </si>
   <si>
@@ -1443,9 +1344,6 @@
     <t>Proceedings of the Veterans Administration Third Diagnostic Electron Microscopy Conference</t>
   </si>
   <si>
-    <t>Handbook of Hearing Aid Measurement (Scattered Holdings 1978-1984, 6 books)</t>
-  </si>
-  <si>
     <t>Recreation Therapy: Developing a Treatment Plan</t>
   </si>
   <si>
@@ -1720,6 +1618,117 @@
   </si>
   <si>
     <t>TC 1.2: T 17/18/975</t>
+  </si>
+  <si>
+    <t>PE 1.8: AG 8</t>
+  </si>
+  <si>
+    <t>PE 1.2:T 71/3</t>
+  </si>
+  <si>
+    <t>PE 1.2:F 21/2</t>
+  </si>
+  <si>
+    <t>PE 1.2:P 31/2</t>
+  </si>
+  <si>
+    <t>PE 1.2:N 95</t>
+  </si>
+  <si>
+    <t>PE 1.8:Au 2</t>
+  </si>
+  <si>
+    <t>PE 1.8:B 39</t>
+  </si>
+  <si>
+    <t>PE 1.8:B 56</t>
+  </si>
+  <si>
+    <t>PE 1.8:C 37</t>
+  </si>
+  <si>
+    <t>PE 1.8:C 73</t>
+  </si>
+  <si>
+    <t>PE 1.8:C 73/2</t>
+  </si>
+  <si>
+    <t>PE 1.8:D 46</t>
+  </si>
+  <si>
+    <t>PE 1.8:F 69</t>
+  </si>
+  <si>
+    <t>PE 1.8:F 76</t>
+  </si>
+  <si>
+    <t>PE 1.8:M 33</t>
+  </si>
+  <si>
+    <t>PE 1.8:P 94</t>
+  </si>
+  <si>
+    <t>PE 1.8:V 88</t>
+  </si>
+  <si>
+    <t>PE 1.2:J 57/988</t>
+  </si>
+  <si>
+    <t>PE 1.2:C 76/2</t>
+  </si>
+  <si>
+    <t>PE 1.2:T 83</t>
+  </si>
+  <si>
+    <t>P 1.52:M 58</t>
+  </si>
+  <si>
+    <t>P 1.52:C 76</t>
+  </si>
+  <si>
+    <t>P 1.52:EX 7</t>
+  </si>
+  <si>
+    <t>P 1.52:OP 2</t>
+  </si>
+  <si>
+    <t>P 4.10: 943</t>
+  </si>
+  <si>
+    <t>P 4.10:TR.2</t>
+  </si>
+  <si>
+    <t>NA 1.1:OR</t>
+  </si>
+  <si>
+    <t>VA 1.20/2: H 41</t>
+  </si>
+  <si>
+    <t>/V. 15-16</t>
+  </si>
+  <si>
+    <t>/v. 17-18</t>
+  </si>
+  <si>
+    <t>VA 1.20/2: H 44</t>
+  </si>
+  <si>
+    <t>/V. 19-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personnel Information Bulletin </t>
+  </si>
+  <si>
+    <t>(Scattered Holdings April 1964 - September-October 1967, 18 books)</t>
+  </si>
+  <si>
+    <t>VA 1.22: 5</t>
+  </si>
+  <si>
+    <t>(Scattered Holdings 1978-1984, 6 books)</t>
+  </si>
+  <si>
+    <t>VA 1.22: 11</t>
   </si>
 </sst>
 </file>
@@ -2056,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L247" sqref="L247"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,7 +2152,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>532</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -2175,7 +2184,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>531</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -2204,19 +2213,19 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>533</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
@@ -2236,19 +2245,19 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>534</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
@@ -2268,19 +2277,19 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>535</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>25</v>
@@ -2300,13 +2309,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>536</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
@@ -2332,13 +2341,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>537</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -2364,13 +2373,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>538</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -2396,13 +2405,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>539</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -2428,13 +2437,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>540</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
@@ -2460,19 +2469,19 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>541</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>25</v>
@@ -2492,13 +2501,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>542</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -2524,13 +2533,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>543</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
@@ -2556,13 +2565,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>544</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
@@ -2588,13 +2597,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>545</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
@@ -2620,13 +2629,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>546</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
@@ -2652,25 +2661,25 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>25</v>
@@ -2690,13 +2699,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>547</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>19</v>
@@ -2722,13 +2731,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>548</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>19</v>
@@ -2754,19 +2763,19 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>548</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>25</v>
@@ -2786,19 +2795,19 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>549</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>25</v>
@@ -2818,19 +2827,19 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>550</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>25</v>
@@ -2850,19 +2859,19 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>551</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>25</v>
@@ -2877,30 +2886,30 @@
         <v>20</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>25</v>
@@ -2915,31 +2924,31 @@
         <v>20</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="H26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2953,24 +2962,24 @@
         <v>20</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>25</v>
@@ -2985,24 +2994,24 @@
         <v>20</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>25</v>
@@ -3017,24 +3026,24 @@
         <v>20</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>25</v>
@@ -3049,24 +3058,24 @@
         <v>20</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>25</v>
@@ -3081,24 +3090,24 @@
         <v>20</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>552</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>25</v>
@@ -3113,24 +3122,24 @@
         <v>20</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>107</v>
+        <v>553</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>25</v>
@@ -3145,18 +3154,18 @@
         <v>20</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>554</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>19</v>
@@ -3177,63 +3186,63 @@
         <v>20</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H35" s="1" t="s">
         <v>25</v>
       </c>
@@ -3247,25 +3256,25 @@
         <v>20</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="H36" s="1" t="s">
         <v>25</v>
       </c>
@@ -3279,25 +3288,25 @@
         <v>20</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="H37" s="1" t="s">
         <v>25</v>
       </c>
@@ -3311,30 +3320,30 @@
         <v>20</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>25</v>
@@ -3349,30 +3358,30 @@
         <v>20</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>153</v>
+        <v>557</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>25</v>
@@ -3387,30 +3396,30 @@
         <v>20</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>25</v>
@@ -3425,24 +3434,24 @@
         <v>20</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>25</v>
@@ -3457,24 +3466,24 @@
         <v>20</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>25</v>
@@ -3489,24 +3498,24 @@
         <v>20</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>25</v>
@@ -3521,27 +3530,27 @@
         <v>20</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>25</v>
@@ -3556,24 +3565,24 @@
         <v>20</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>25</v>
@@ -3588,24 +3597,24 @@
         <v>20</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>25</v>
@@ -3620,24 +3629,24 @@
         <v>20</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>25</v>
@@ -3652,24 +3661,24 @@
         <v>20</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>25</v>
@@ -3684,24 +3693,24 @@
         <v>20</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>25</v>
@@ -3716,56 +3725,56 @@
         <v>20</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>25</v>
@@ -3780,24 +3789,24 @@
         <v>20</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>25</v>
@@ -3812,24 +3821,24 @@
         <v>20</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>25</v>
@@ -3844,24 +3853,24 @@
         <v>20</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>25</v>
@@ -3876,27 +3885,27 @@
         <v>20</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>25</v>
@@ -3911,24 +3920,24 @@
         <v>20</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>25</v>
@@ -3943,24 +3952,24 @@
         <v>20</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>25</v>
@@ -3980,19 +3989,19 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>25</v>
@@ -4012,19 +4021,19 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>25</v>
@@ -4044,19 +4053,19 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>25</v>
@@ -4076,19 +4085,19 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>25</v>
@@ -4108,19 +4117,19 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>25</v>
@@ -4140,19 +4149,19 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>25</v>
@@ -4172,19 +4181,19 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>25</v>
@@ -4204,19 +4213,19 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>25</v>
@@ -4236,19 +4245,19 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>25</v>
@@ -4268,19 +4277,19 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>25</v>
@@ -4300,19 +4309,19 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>25</v>
@@ -4332,19 +4341,19 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>25</v>
@@ -4364,19 +4373,19 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>25</v>
@@ -4396,19 +4405,19 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>25</v>
@@ -4428,19 +4437,19 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>25</v>
@@ -4460,19 +4469,19 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>25</v>
@@ -4492,19 +4501,19 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>25</v>
@@ -4524,19 +4533,19 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>25</v>
@@ -4556,19 +4565,19 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>25</v>
@@ -4588,19 +4597,19 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>25</v>
@@ -4620,19 +4629,19 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>25</v>
@@ -4652,19 +4661,19 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>25</v>
@@ -4684,19 +4693,19 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>25</v>
@@ -4716,19 +4725,19 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>25</v>
@@ -4748,19 +4757,19 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>25</v>
@@ -4780,19 +4789,19 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>25</v>
@@ -4812,19 +4821,19 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>25</v>
@@ -4844,19 +4853,19 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>25</v>
@@ -4876,19 +4885,19 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>25</v>
@@ -4903,24 +4912,24 @@
         <v>20</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>25</v>
@@ -4935,24 +4944,24 @@
         <v>20</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>25</v>
@@ -4967,24 +4976,24 @@
         <v>20</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>25</v>
@@ -4999,24 +5008,24 @@
         <v>20</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>25</v>
@@ -5031,24 +5040,24 @@
         <v>20</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>25</v>
@@ -5063,24 +5072,24 @@
         <v>20</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>25</v>
@@ -5095,24 +5104,24 @@
         <v>20</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>25</v>
@@ -5127,24 +5136,24 @@
         <v>20</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>25</v>
@@ -5159,30 +5168,30 @@
         <v>20</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>25</v>
@@ -5197,24 +5206,24 @@
         <v>20</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>25</v>
@@ -5229,24 +5238,24 @@
         <v>20</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>25</v>
@@ -5261,24 +5270,24 @@
         <v>20</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>25</v>
@@ -5293,24 +5302,24 @@
         <v>20</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>25</v>
@@ -5325,24 +5334,24 @@
         <v>20</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>25</v>
@@ -5357,24 +5366,24 @@
         <v>20</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>25</v>
@@ -5389,24 +5398,24 @@
         <v>20</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>25</v>
@@ -5421,24 +5430,24 @@
         <v>20</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>25</v>
@@ -5453,18 +5462,18 @@
         <v>20</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>19</v>
@@ -5485,18 +5494,18 @@
         <v>20</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>19</v>
@@ -5517,24 +5526,24 @@
         <v>20</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>25</v>
@@ -5549,24 +5558,24 @@
         <v>20</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>25</v>
@@ -5581,24 +5590,24 @@
         <v>20</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>25</v>
@@ -5613,18 +5622,18 @@
         <v>20</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>19</v>
@@ -5645,24 +5654,24 @@
         <v>20</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>25</v>
@@ -5677,24 +5686,24 @@
         <v>20</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>25</v>
@@ -5709,27 +5718,27 @@
         <v>20</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>28</v>
@@ -5747,24 +5756,24 @@
         <v>20</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>25</v>
@@ -5779,24 +5788,24 @@
         <v>20</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>25</v>
@@ -5811,24 +5820,24 @@
         <v>20</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>25</v>
@@ -5843,24 +5852,24 @@
         <v>20</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>25</v>
@@ -5875,24 +5884,27 @@
         <v>20</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>283</v>
+        <v>558</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>25</v>
@@ -5907,24 +5919,27 @@
         <v>20</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>284</v>
+        <v>558</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>25</v>
@@ -5939,24 +5954,27 @@
         <v>20</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>285</v>
+        <v>561</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>25</v>
@@ -5971,24 +5989,24 @@
         <v>20</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>25</v>
@@ -6003,24 +6021,24 @@
         <v>20</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>25</v>
@@ -6035,24 +6053,24 @@
         <v>20</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>25</v>
@@ -6067,18 +6085,18 @@
         <v>20</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>19</v>
@@ -6099,24 +6117,24 @@
         <v>20</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>25</v>
@@ -6131,24 +6149,24 @@
         <v>20</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>25</v>
@@ -6163,24 +6181,24 @@
         <v>20</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>25</v>
@@ -6195,24 +6213,24 @@
         <v>20</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>25</v>
@@ -6227,24 +6245,24 @@
         <v>20</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>25</v>
@@ -6259,27 +6277,27 @@
         <v>20</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>25</v>
@@ -6294,24 +6312,24 @@
         <v>20</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>25</v>
@@ -6326,24 +6344,24 @@
         <v>20</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>25</v>
@@ -6358,24 +6376,24 @@
         <v>20</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>25</v>
@@ -6390,24 +6408,30 @@
         <v>20</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>422</v>
+        <v>563</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>299</v>
+        <v>565</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>25</v>
@@ -6422,24 +6446,24 @@
         <v>20</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>25</v>
@@ -6454,24 +6478,24 @@
         <v>20</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>25</v>
@@ -6486,24 +6510,24 @@
         <v>20</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>25</v>
@@ -6518,24 +6542,24 @@
         <v>20</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>25</v>
@@ -6550,24 +6574,24 @@
         <v>20</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>25</v>
@@ -6582,24 +6606,24 @@
         <v>20</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>25</v>
@@ -6614,24 +6638,24 @@
         <v>20</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>25</v>
@@ -6646,24 +6670,24 @@
         <v>20</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>25</v>
@@ -6678,24 +6702,24 @@
         <v>20</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>25</v>
@@ -6710,24 +6734,24 @@
         <v>20</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>25</v>
@@ -6742,24 +6766,24 @@
         <v>20</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>25</v>
@@ -6774,24 +6798,24 @@
         <v>20</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>25</v>
@@ -6806,24 +6830,24 @@
         <v>20</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>25</v>
@@ -6838,24 +6862,24 @@
         <v>20</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>25</v>
@@ -6870,24 +6894,24 @@
         <v>20</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>25</v>
@@ -6902,24 +6926,24 @@
         <v>20</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>25</v>
@@ -6934,24 +6958,24 @@
         <v>20</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>25</v>
@@ -6966,24 +6990,24 @@
         <v>20</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>25</v>
@@ -6998,24 +7022,24 @@
         <v>20</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>25</v>
@@ -7030,18 +7054,18 @@
         <v>20</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>19</v>
@@ -7062,24 +7086,24 @@
         <v>20</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>25</v>
@@ -7094,24 +7118,24 @@
         <v>20</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>25</v>
@@ -7126,24 +7150,24 @@
         <v>20</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>25</v>
@@ -7158,24 +7182,24 @@
         <v>20</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>25</v>
@@ -7190,24 +7214,24 @@
         <v>20</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>25</v>
@@ -7222,24 +7246,24 @@
         <v>20</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>25</v>
@@ -7254,24 +7278,24 @@
         <v>20</v>
       </c>
       <c r="Q159" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>25</v>
@@ -7286,24 +7310,24 @@
         <v>20</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>25</v>
@@ -7318,24 +7342,24 @@
         <v>20</v>
       </c>
       <c r="Q161" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>25</v>
@@ -7350,24 +7374,24 @@
         <v>20</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>25</v>
@@ -7382,24 +7406,24 @@
         <v>20</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>25</v>
@@ -7414,24 +7438,24 @@
         <v>20</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>25</v>
@@ -7446,24 +7470,24 @@
         <v>20</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>25</v>
@@ -7478,24 +7502,24 @@
         <v>20</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>25</v>
@@ -7510,24 +7534,24 @@
         <v>20</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>25</v>
@@ -7542,24 +7566,24 @@
         <v>20</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>25</v>
@@ -7574,24 +7598,24 @@
         <v>20</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>25</v>
@@ -7606,24 +7630,24 @@
         <v>20</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>25</v>
@@ -7638,24 +7662,24 @@
         <v>20</v>
       </c>
       <c r="Q171" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>25</v>
@@ -7670,24 +7694,24 @@
         <v>20</v>
       </c>
       <c r="Q172" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>25</v>
@@ -7702,24 +7726,24 @@
         <v>20</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>25</v>
@@ -7734,24 +7758,24 @@
         <v>20</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>25</v>
@@ -7766,24 +7790,24 @@
         <v>20</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>25</v>
@@ -7798,24 +7822,24 @@
         <v>20</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>25</v>
@@ -7830,24 +7854,24 @@
         <v>20</v>
       </c>
       <c r="Q177" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>25</v>
@@ -7862,24 +7886,24 @@
         <v>20</v>
       </c>
       <c r="Q178" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>25</v>
@@ -7894,24 +7918,24 @@
         <v>20</v>
       </c>
       <c r="Q179" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>25</v>
@@ -7926,24 +7950,24 @@
         <v>20</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>25</v>
@@ -7958,24 +7982,24 @@
         <v>20</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>25</v>
@@ -7990,23 +8014,29 @@
         <v>20</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>349</v>
+        <v>567</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E183" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="F183" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -8022,24 +8052,24 @@
         <v>20</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>25</v>
@@ -8054,24 +8084,24 @@
         <v>20</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>25</v>
@@ -8086,56 +8116,56 @@
         <v>20</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q186" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K186" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q186" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>25</v>
@@ -8150,24 +8180,24 @@
         <v>20</v>
       </c>
       <c r="Q187" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>25</v>
@@ -8182,24 +8212,24 @@
         <v>20</v>
       </c>
       <c r="Q188" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>25</v>
@@ -8214,24 +8244,24 @@
         <v>20</v>
       </c>
       <c r="Q189" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>25</v>
@@ -8246,24 +8276,24 @@
         <v>20</v>
       </c>
       <c r="Q190" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>25</v>
@@ -8278,18 +8308,18 @@
         <v>20</v>
       </c>
       <c r="Q191" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>19</v>
@@ -8310,24 +8340,24 @@
         <v>20</v>
       </c>
       <c r="Q192" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>25</v>
@@ -8342,24 +8372,24 @@
         <v>20</v>
       </c>
       <c r="Q193" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>25</v>
@@ -8374,24 +8404,24 @@
         <v>20</v>
       </c>
       <c r="Q194" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>25</v>
@@ -8406,24 +8436,24 @@
         <v>20</v>
       </c>
       <c r="Q195" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>25</v>
@@ -8438,24 +8468,24 @@
         <v>20</v>
       </c>
       <c r="Q196" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>25</v>
@@ -8470,27 +8500,27 @@
         <v>20</v>
       </c>
       <c r="Q197" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>25</v>
@@ -8505,24 +8535,24 @@
         <v>20</v>
       </c>
       <c r="Q198" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>25</v>
@@ -8537,30 +8567,30 @@
         <v>20</v>
       </c>
       <c r="Q199" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>25</v>
@@ -8575,24 +8605,24 @@
         <v>20</v>
       </c>
       <c r="Q200" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>25</v>
@@ -8607,24 +8637,24 @@
         <v>20</v>
       </c>
       <c r="Q201" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>25</v>
@@ -8639,24 +8669,24 @@
         <v>20</v>
       </c>
       <c r="Q202" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>25</v>
@@ -8671,24 +8701,24 @@
         <v>20</v>
       </c>
       <c r="Q203" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>25</v>
@@ -8703,24 +8733,24 @@
         <v>20</v>
       </c>
       <c r="Q204" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>25</v>
@@ -8735,24 +8765,24 @@
         <v>20</v>
       </c>
       <c r="Q205" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>25</v>
@@ -8767,24 +8797,24 @@
         <v>20</v>
       </c>
       <c r="Q206" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>25</v>
@@ -8799,24 +8829,24 @@
         <v>20</v>
       </c>
       <c r="Q207" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>25</v>
@@ -8831,18 +8861,18 @@
         <v>20</v>
       </c>
       <c r="Q208" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>19</v>
@@ -8863,24 +8893,24 @@
         <v>20</v>
       </c>
       <c r="Q209" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>25</v>
@@ -8895,24 +8925,24 @@
         <v>20</v>
       </c>
       <c r="Q210" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>25</v>
@@ -8927,24 +8957,24 @@
         <v>20</v>
       </c>
       <c r="Q211" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>25</v>
@@ -8959,24 +8989,24 @@
         <v>20</v>
       </c>
       <c r="Q212" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>25</v>
@@ -8991,24 +9021,24 @@
         <v>20</v>
       </c>
       <c r="Q213" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>25</v>
@@ -9023,24 +9053,24 @@
         <v>20</v>
       </c>
       <c r="Q214" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>25</v>
@@ -9055,18 +9085,18 @@
         <v>20</v>
       </c>
       <c r="Q215" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>19</v>
@@ -9087,24 +9117,24 @@
         <v>20</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>25</v>
@@ -9119,24 +9149,24 @@
         <v>20</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>25</v>
@@ -9151,18 +9181,18 @@
         <v>20</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>19</v>
@@ -9183,30 +9213,30 @@
         <v>20</v>
       </c>
       <c r="Q219" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>25</v>
@@ -9221,18 +9251,18 @@
         <v>20</v>
       </c>
       <c r="Q220" s="1" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>19</v>
@@ -9253,24 +9283,24 @@
         <v>20</v>
       </c>
       <c r="Q221" s="1" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>25</v>
@@ -9285,24 +9315,24 @@
         <v>20</v>
       </c>
       <c r="Q222" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>25</v>
@@ -9317,24 +9347,24 @@
         <v>20</v>
       </c>
       <c r="Q223" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>25</v>
@@ -9349,24 +9379,24 @@
         <v>20</v>
       </c>
       <c r="Q224" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>25</v>
@@ -9381,24 +9411,24 @@
         <v>20</v>
       </c>
       <c r="Q225" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>25</v>
@@ -9413,24 +9443,24 @@
         <v>20</v>
       </c>
       <c r="Q226" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>25</v>
@@ -9445,24 +9475,24 @@
         <v>20</v>
       </c>
       <c r="Q227" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>25</v>
@@ -9477,59 +9507,59 @@
         <v>20</v>
       </c>
       <c r="Q228" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q229" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I229" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J229" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K229" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q229" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>25</v>
@@ -9544,24 +9574,24 @@
         <v>20</v>
       </c>
       <c r="Q230" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>25</v>
@@ -9576,24 +9606,24 @@
         <v>20</v>
       </c>
       <c r="Q231" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>25</v>
@@ -9608,24 +9638,24 @@
         <v>20</v>
       </c>
       <c r="Q232" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>25</v>
@@ -9640,24 +9670,24 @@
         <v>20</v>
       </c>
       <c r="Q233" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>25</v>
@@ -9672,24 +9702,24 @@
         <v>20</v>
       </c>
       <c r="Q234" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>25</v>
@@ -9704,24 +9734,24 @@
         <v>20</v>
       </c>
       <c r="Q235" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>25</v>
@@ -9736,24 +9766,24 @@
         <v>20</v>
       </c>
       <c r="Q236" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>25</v>
@@ -9768,24 +9798,24 @@
         <v>20</v>
       </c>
       <c r="Q237" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>25</v>
@@ -9800,24 +9830,24 @@
         <v>20</v>
       </c>
       <c r="Q238" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>25</v>
@@ -9832,24 +9862,24 @@
         <v>20</v>
       </c>
       <c r="Q239" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>25</v>
@@ -9864,24 +9894,24 @@
         <v>20</v>
       </c>
       <c r="Q240" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>25</v>
@@ -9896,7 +9926,7 @@
         <v>20</v>
       </c>
       <c r="Q241" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
